--- a/Ultimate Excel Gantt Chart 5 days.xlsx
+++ b/Ultimate Excel Gantt Chart 5 days.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Template\Ultimate Excel Gantt Chart\1.5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3198B310-8513-4F06-9364-124C33800B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD85A16-6960-4845-8727-B970635CCA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="145">
   <si>
     <t>ids</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>* Maximum 14 roles</t>
+  </si>
+  <si>
+    <t>Github link for more update</t>
+  </si>
+  <si>
+    <t>edward-0116/UltiExcelGantt: Ultimate Excel Gantt Chart (github.com)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
     <numFmt numFmtId="164" formatCode="d/mmm/yy"/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +784,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1391,7 +1413,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1632,7 +1654,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1647,42 +1668,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1708,6 +1693,45 @@
     <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1801,16 +1825,42 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="\◆"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF481B5C"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF6C288A"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0A3F87"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="\◆"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0E5FCB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0A3F87"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1823,34 +1873,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0A3F87"/>
+          <bgColor rgb="FF6C288A"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0E5FCB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0A3F87"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="\◆"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF840441"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC60662"/>
+          <bgColor rgb="FF481B5C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1863,7 +1893,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC58A03"/>
+          <bgColor rgb="FFC60662"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF840441"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1876,7 +1913,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC58A03"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF845C02"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF89860C"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="\◆"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCDC912"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1886,19 +1943,6 @@
           <bgColor rgb="FF89860C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDC912"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF89860C"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="\◆"/>
     </dxf>
     <dxf>
       <font>
@@ -1917,26 +1961,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF1B6D4A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="\◆"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2145,7 +2169,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0A3F87"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3F082"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2153,6 +2191,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0E5FCB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0A3F87"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2187,6 +2232,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC58A03"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF845C02"/>
         </patternFill>
       </fill>
@@ -2194,7 +2246,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC58A03"/>
+          <bgColor rgb="FFCDC912"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2202,13 +2254,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF89860C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDC912"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2223,27 +2268,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF1B6D4A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3F082"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2504,10 +2528,10 @@
           <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>69</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>68</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2606,13 +2630,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>410</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>474559</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>171133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2956,7 +2980,7 @@
   <dimension ref="B1:AI203"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2990,71 +3014,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
     </row>
     <row r="2" spans="2:35" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="P2" s="127" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="P2" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="128"/>
+      <c r="Q2" s="127"/>
     </row>
     <row r="3" spans="2:35" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="G6" s="125" t="s">
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="G6" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="M6" s="125" t="s">
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="M6" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="S6" s="125" t="s">
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="S6" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="X6" s="125" t="s">
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="X6" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AG6" s="125" t="s">
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="124"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="124"/>
+      <c r="AG6" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
+      <c r="AH6" s="124"/>
+      <c r="AI6" s="124"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
@@ -5450,8 +5474,8 @@
   <dimension ref="A1:BR43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5479,204 +5503,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="126" t="str">
+      <c r="B1" s="125" t="str">
         <f>Settings!D8</f>
         <v>Example Project</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
     </row>
     <row r="2" spans="1:69" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="X2" s="140" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="X2" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="147" cm="1">
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="134" cm="1">
         <f t="array" ref="AF2">project_start</f>
         <v>44330</v>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
       <c r="AJ2" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="147" cm="1">
+      <c r="AK2" s="134" cm="1">
         <f t="array" ref="AK2">project_end</f>
         <v>44399</v>
       </c>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="147"/>
-      <c r="AO2" s="148" t="str" cm="1">
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="135" t="str" cm="1">
         <f t="array" ref="AO2">"(" &amp; project_duration &amp; ")"</f>
         <v>(50)</v>
       </c>
-      <c r="AP2" s="148"/>
-      <c r="AT2" s="140" t="s">
+      <c r="AP2" s="135"/>
+      <c r="AT2" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="140"/>
-      <c r="AW2" s="140"/>
-      <c r="AX2" s="140"/>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="141" t="str">
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="137"/>
+      <c r="AW2" s="137"/>
+      <c r="AX2" s="137"/>
+      <c r="AY2" s="137"/>
+      <c r="AZ2" s="137"/>
+      <c r="BA2" s="138" t="str">
         <f>Settings!D10</f>
         <v>F.Edward</v>
       </c>
-      <c r="BB2" s="141"/>
-      <c r="BC2" s="141"/>
-      <c r="BD2" s="141"/>
-      <c r="BE2" s="141"/>
-      <c r="BF2" s="141"/>
-      <c r="BL2" s="127" t="s">
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BL2" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="146"/>
-      <c r="BN2" s="146"/>
-      <c r="BO2" s="146"/>
-      <c r="BP2" s="146"/>
-      <c r="BQ2" s="128"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="127"/>
     </row>
     <row r="3" spans="1:69" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="142" t="s">
+      <c r="X5" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="144"/>
-      <c r="AG5" s="142" t="s">
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="131"/>
+      <c r="AG5" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" s="143"/>
-      <c r="AI5" s="143"/>
-      <c r="AJ5" s="143"/>
-      <c r="AK5" s="143"/>
-      <c r="AL5" s="144"/>
-      <c r="AP5" s="142" t="s">
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="131"/>
+      <c r="AP5" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="143"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="144"/>
-      <c r="BL5" s="142" t="s">
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="131"/>
+      <c r="BL5" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="BM5" s="143"/>
-      <c r="BN5" s="143"/>
-      <c r="BO5" s="143"/>
-      <c r="BP5" s="143"/>
-      <c r="BQ5" s="144"/>
+      <c r="BM5" s="130"/>
+      <c r="BN5" s="130"/>
+      <c r="BO5" s="130"/>
+      <c r="BP5" s="130"/>
+      <c r="BQ5" s="131"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="145" t="s">
+      <c r="X6" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
-      <c r="AG6" s="145" t="s">
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="132"/>
+      <c r="AA6" s="132"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="132"/>
+      <c r="AG6" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="AH6" s="145"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="145"/>
-      <c r="AP6" s="145" t="s">
+      <c r="AH6" s="132"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AP6" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="AQ6" s="145"/>
-      <c r="AR6" s="145"/>
-      <c r="AS6" s="145"/>
-      <c r="AT6" s="145"/>
-      <c r="AU6" s="145"/>
-      <c r="BL6" s="149">
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="132"/>
+      <c r="AS6" s="132"/>
+      <c r="AT6" s="132"/>
+      <c r="AU6" s="132"/>
+      <c r="BL6" s="136">
         <v>44350</v>
       </c>
-      <c r="BM6" s="149"/>
-      <c r="BN6" s="149"/>
-      <c r="BO6" s="149"/>
-      <c r="BP6" s="149"/>
-      <c r="BQ6" s="149"/>
+      <c r="BM6" s="136"/>
+      <c r="BN6" s="136"/>
+      <c r="BO6" s="136"/>
+      <c r="BP6" s="136"/>
+      <c r="BQ6" s="136"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C7" s="17"/>
@@ -5884,353 +5908,353 @@
       <c r="C11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="131" t="s">
+      <c r="K11" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="132" t="s">
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="132"/>
+      <c r="V11" s="144"/>
       <c r="W11" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="137" cm="1">
+      <c r="X11" s="139" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">WORKDAY(timeline_start,scroll_increment)</f>
         <v>44343</v>
       </c>
-      <c r="Y11" s="137">
+      <c r="Y11" s="139">
         <f ca="1">WORKDAY(X11,1)</f>
         <v>44344</v>
       </c>
-      <c r="Z11" s="137">
+      <c r="Z11" s="139">
         <f t="shared" ref="Z11:BQ11" ca="1" si="1">WORKDAY(Y11,1)</f>
         <v>44347</v>
       </c>
-      <c r="AA11" s="137">
+      <c r="AA11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44348</v>
       </c>
-      <c r="AB11" s="137">
+      <c r="AB11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44349</v>
       </c>
-      <c r="AC11" s="137">
+      <c r="AC11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44350</v>
       </c>
-      <c r="AD11" s="137">
+      <c r="AD11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44351</v>
       </c>
-      <c r="AE11" s="137">
+      <c r="AE11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
       </c>
-      <c r="AF11" s="137">
+      <c r="AF11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
       </c>
-      <c r="AG11" s="137">
+      <c r="AG11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
       </c>
-      <c r="AH11" s="137">
+      <c r="AH11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
       </c>
-      <c r="AI11" s="137">
+      <c r="AI11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44358</v>
       </c>
-      <c r="AJ11" s="137">
+      <c r="AJ11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44361</v>
       </c>
-      <c r="AK11" s="137">
+      <c r="AK11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44362</v>
       </c>
-      <c r="AL11" s="137">
+      <c r="AL11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44363</v>
       </c>
-      <c r="AM11" s="137">
+      <c r="AM11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44364</v>
       </c>
-      <c r="AN11" s="137">
+      <c r="AN11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44365</v>
       </c>
-      <c r="AO11" s="137">
+      <c r="AO11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44368</v>
       </c>
-      <c r="AP11" s="137">
+      <c r="AP11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44369</v>
       </c>
-      <c r="AQ11" s="137">
+      <c r="AQ11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44370</v>
       </c>
-      <c r="AR11" s="137">
+      <c r="AR11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44371</v>
       </c>
-      <c r="AS11" s="137">
+      <c r="AS11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44372</v>
       </c>
-      <c r="AT11" s="137">
+      <c r="AT11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44375</v>
       </c>
-      <c r="AU11" s="137">
+      <c r="AU11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44376</v>
       </c>
-      <c r="AV11" s="137">
+      <c r="AV11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44377</v>
       </c>
-      <c r="AW11" s="137">
+      <c r="AW11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44378</v>
       </c>
-      <c r="AX11" s="137">
+      <c r="AX11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44379</v>
       </c>
-      <c r="AY11" s="137">
+      <c r="AY11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44382</v>
       </c>
-      <c r="AZ11" s="137">
+      <c r="AZ11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44383</v>
       </c>
-      <c r="BA11" s="137">
+      <c r="BA11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44384</v>
       </c>
-      <c r="BB11" s="137">
+      <c r="BB11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44385</v>
       </c>
-      <c r="BC11" s="137">
+      <c r="BC11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44386</v>
       </c>
-      <c r="BD11" s="137">
+      <c r="BD11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44389</v>
       </c>
-      <c r="BE11" s="137">
+      <c r="BE11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44390</v>
       </c>
-      <c r="BF11" s="137">
+      <c r="BF11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44391</v>
       </c>
-      <c r="BG11" s="137">
+      <c r="BG11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44392</v>
       </c>
-      <c r="BH11" s="137">
+      <c r="BH11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44393</v>
       </c>
-      <c r="BI11" s="137">
+      <c r="BI11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44396</v>
       </c>
-      <c r="BJ11" s="137">
+      <c r="BJ11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44397</v>
       </c>
-      <c r="BK11" s="137">
+      <c r="BK11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44398</v>
       </c>
-      <c r="BL11" s="137">
+      <c r="BL11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44399</v>
       </c>
-      <c r="BM11" s="137">
+      <c r="BM11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44400</v>
       </c>
-      <c r="BN11" s="137">
+      <c r="BN11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44403</v>
       </c>
-      <c r="BO11" s="137">
+      <c r="BO11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44404</v>
       </c>
-      <c r="BP11" s="137">
+      <c r="BP11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44405</v>
       </c>
-      <c r="BQ11" s="137">
+      <c r="BQ11" s="139">
         <f t="shared" ca="1" si="1"/>
         <v>44406</v>
       </c>
     </row>
     <row r="12" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="133" t="s">
+      <c r="K12" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="134" t="s">
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="134"/>
+      <c r="V12" s="146"/>
       <c r="W12" s="88">
         <v>13</v>
       </c>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="137"/>
-      <c r="AA12" s="137"/>
-      <c r="AB12" s="137"/>
-      <c r="AC12" s="137"/>
-      <c r="AD12" s="137"/>
-      <c r="AE12" s="137"/>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="137"/>
-      <c r="AH12" s="137"/>
-      <c r="AI12" s="137"/>
-      <c r="AJ12" s="137"/>
-      <c r="AK12" s="137"/>
-      <c r="AL12" s="137"/>
-      <c r="AM12" s="137"/>
-      <c r="AN12" s="137"/>
-      <c r="AO12" s="137"/>
-      <c r="AP12" s="137"/>
-      <c r="AQ12" s="137"/>
-      <c r="AR12" s="137"/>
-      <c r="AS12" s="137"/>
-      <c r="AT12" s="137"/>
-      <c r="AU12" s="137"/>
-      <c r="AV12" s="137"/>
-      <c r="AW12" s="137"/>
-      <c r="AX12" s="137"/>
-      <c r="AY12" s="137"/>
-      <c r="AZ12" s="137"/>
-      <c r="BA12" s="137"/>
-      <c r="BB12" s="137"/>
-      <c r="BC12" s="137"/>
-      <c r="BD12" s="137"/>
-      <c r="BE12" s="137"/>
-      <c r="BF12" s="137"/>
-      <c r="BG12" s="137"/>
-      <c r="BH12" s="137"/>
-      <c r="BI12" s="137"/>
-      <c r="BJ12" s="137"/>
-      <c r="BK12" s="137"/>
-      <c r="BL12" s="137"/>
-      <c r="BM12" s="137"/>
-      <c r="BN12" s="137"/>
-      <c r="BO12" s="137"/>
-      <c r="BP12" s="137"/>
-      <c r="BQ12" s="137"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="139"/>
+      <c r="AJ12" s="139"/>
+      <c r="AK12" s="139"/>
+      <c r="AL12" s="139"/>
+      <c r="AM12" s="139"/>
+      <c r="AN12" s="139"/>
+      <c r="AO12" s="139"/>
+      <c r="AP12" s="139"/>
+      <c r="AQ12" s="139"/>
+      <c r="AR12" s="139"/>
+      <c r="AS12" s="139"/>
+      <c r="AT12" s="139"/>
+      <c r="AU12" s="139"/>
+      <c r="AV12" s="139"/>
+      <c r="AW12" s="139"/>
+      <c r="AX12" s="139"/>
+      <c r="AY12" s="139"/>
+      <c r="AZ12" s="139"/>
+      <c r="BA12" s="139"/>
+      <c r="BB12" s="139"/>
+      <c r="BC12" s="139"/>
+      <c r="BD12" s="139"/>
+      <c r="BE12" s="139"/>
+      <c r="BF12" s="139"/>
+      <c r="BG12" s="139"/>
+      <c r="BH12" s="139"/>
+      <c r="BI12" s="139"/>
+      <c r="BJ12" s="139"/>
+      <c r="BK12" s="139"/>
+      <c r="BL12" s="139"/>
+      <c r="BM12" s="139"/>
+      <c r="BN12" s="139"/>
+      <c r="BO12" s="139"/>
+      <c r="BP12" s="139"/>
+      <c r="BQ12" s="139"/>
     </row>
     <row r="13" spans="1:69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130" t="s">
+      <c r="B13" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="136">
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="148">
         <v>44319</v>
       </c>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="135">
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="147">
         <v>44319</v>
       </c>
-      <c r="V13" s="135"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="137"/>
-      <c r="AL13" s="137"/>
-      <c r="AM13" s="137"/>
-      <c r="AN13" s="137"/>
-      <c r="AO13" s="137"/>
-      <c r="AP13" s="137"/>
-      <c r="AQ13" s="137"/>
-      <c r="AR13" s="137"/>
-      <c r="AS13" s="137"/>
-      <c r="AT13" s="137"/>
-      <c r="AU13" s="137"/>
-      <c r="AV13" s="137"/>
-      <c r="AW13" s="137"/>
-      <c r="AX13" s="137"/>
-      <c r="AY13" s="137"/>
-      <c r="AZ13" s="137"/>
-      <c r="BA13" s="137"/>
-      <c r="BB13" s="137"/>
-      <c r="BC13" s="137"/>
-      <c r="BD13" s="137"/>
-      <c r="BE13" s="137"/>
-      <c r="BF13" s="137"/>
-      <c r="BG13" s="137"/>
-      <c r="BH13" s="137"/>
-      <c r="BI13" s="137"/>
-      <c r="BJ13" s="137"/>
-      <c r="BK13" s="137"/>
-      <c r="BL13" s="137"/>
-      <c r="BM13" s="137"/>
-      <c r="BN13" s="137"/>
-      <c r="BO13" s="137"/>
-      <c r="BP13" s="137"/>
-      <c r="BQ13" s="137"/>
+      <c r="V13" s="147"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="139"/>
+      <c r="AF13" s="139"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="139"/>
+      <c r="AJ13" s="139"/>
+      <c r="AK13" s="139"/>
+      <c r="AL13" s="139"/>
+      <c r="AM13" s="139"/>
+      <c r="AN13" s="139"/>
+      <c r="AO13" s="139"/>
+      <c r="AP13" s="139"/>
+      <c r="AQ13" s="139"/>
+      <c r="AR13" s="139"/>
+      <c r="AS13" s="139"/>
+      <c r="AT13" s="139"/>
+      <c r="AU13" s="139"/>
+      <c r="AV13" s="139"/>
+      <c r="AW13" s="139"/>
+      <c r="AX13" s="139"/>
+      <c r="AY13" s="139"/>
+      <c r="AZ13" s="139"/>
+      <c r="BA13" s="139"/>
+      <c r="BB13" s="139"/>
+      <c r="BC13" s="139"/>
+      <c r="BD13" s="139"/>
+      <c r="BE13" s="139"/>
+      <c r="BF13" s="139"/>
+      <c r="BG13" s="139"/>
+      <c r="BH13" s="139"/>
+      <c r="BI13" s="139"/>
+      <c r="BJ13" s="139"/>
+      <c r="BK13" s="139"/>
+      <c r="BL13" s="139"/>
+      <c r="BM13" s="139"/>
+      <c r="BN13" s="139"/>
+      <c r="BO13" s="139"/>
+      <c r="BP13" s="139"/>
+      <c r="BQ13" s="139"/>
     </row>
     <row r="14" spans="1:69" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="79"/>
@@ -6268,10 +6292,10 @@
       <c r="M14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="138" t="s">
+      <c r="N14" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="139"/>
+      <c r="O14" s="141"/>
       <c r="P14" s="29" t="s">
         <v>15</v>
       </c>
@@ -12506,18 +12530,49 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AP5:AU5"/>
-    <mergeCell ref="AP6:AU6"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AT11:AT13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="BQ11:BQ13"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="BL11:BL13"/>
+    <mergeCell ref="BM11:BM13"/>
+    <mergeCell ref="BN11:BN13"/>
+    <mergeCell ref="BO11:BO13"/>
+    <mergeCell ref="BP11:BP13"/>
     <mergeCell ref="B1:T3"/>
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
@@ -12534,49 +12589,18 @@
     <mergeCell ref="BE11:BE13"/>
     <mergeCell ref="BF11:BF13"/>
     <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="BQ11:BQ13"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="BL11:BL13"/>
-    <mergeCell ref="BM11:BM13"/>
-    <mergeCell ref="BN11:BN13"/>
-    <mergeCell ref="BO11:BO13"/>
-    <mergeCell ref="BP11:BP13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AG5:AL5"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AP5:AU5"/>
+    <mergeCell ref="AP6:AU6"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="BL6:BQ6"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:BQ43">
@@ -12649,50 +12673,50 @@
     <cfRule type="expression" dxfId="77" priority="80" stopIfTrue="1">
       <formula>OR(colour_code=802,colour_code=803)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
+      <formula>OR(colour_code=901,colour_code=904)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="82" stopIfTrue="1">
+      <formula>OR(colour_code=902,colour_code=903)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="83" stopIfTrue="1">
+      <formula>OR(colour_code=1001,colour_code=1004)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="84" stopIfTrue="1">
+      <formula>OR(colour_code=1002,colour_code=1003)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="85" stopIfTrue="1">
+      <formula>OR(colour_code=1101,colour_code=1104)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="86" stopIfTrue="1">
+      <formula>OR(colour_code=1102,colour_code=1103)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="87" stopIfTrue="1">
+      <formula>OR(colour_code=1202,colour_code=1203)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="89" stopIfTrue="1">
+      <formula>OR(colour_code=1201,colour_code=1204)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="90" stopIfTrue="1">
+      <formula>OR(colour_code=1302,colour_code=1303)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="91" stopIfTrue="1">
+      <formula>OR(colour_code=1301,colour_code=1304)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="92" stopIfTrue="1">
+      <formula>OR(colour_code=1401,colour_code=1404)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="94" stopIfTrue="1">
+      <formula>OR(colour_code=1402,colour_code=1403)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="102" stopIfTrue="1">
       <formula>OR(colour_code=802,colour_code=803)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="107" stopIfTrue="1">
       <formula>colour_code=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="108">
+    <cfRule type="expression" dxfId="62" priority="108">
       <formula>OR(colour_code=2,colour_code=3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="81" stopIfTrue="1">
-      <formula>OR(colour_code=901,colour_code=904)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="82" stopIfTrue="1">
-      <formula>OR(colour_code=902,colour_code=903)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="84" stopIfTrue="1">
-      <formula>OR(colour_code=1002,colour_code=1003)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="83" stopIfTrue="1">
-      <formula>OR(colour_code=1001,colour_code=1004)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="86" stopIfTrue="1">
-      <formula>OR(colour_code=1102,colour_code=1103)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="85" stopIfTrue="1">
-      <formula>OR(colour_code=1101,colour_code=1104)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="87" stopIfTrue="1">
-      <formula>OR(colour_code=1202,colour_code=1203)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="89" stopIfTrue="1">
-      <formula>OR(colour_code=1201,colour_code=1204)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="90" stopIfTrue="1">
-      <formula>OR(colour_code=1302,colour_code=1303)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="91" stopIfTrue="1">
-      <formula>OR(colour_code=1301,colour_code=1304)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="94" stopIfTrue="1">
-      <formula>OR(colour_code=1402,colour_code=1403)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="92" stopIfTrue="1">
-      <formula>OR(colour_code=1401,colour_code=1404)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:BQ43">
@@ -12789,68 +12813,68 @@
     <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
       <formula>OR(colour_code=803,colour_code=804)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="105" stopIfTrue="1">
-      <formula>colour_code=1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="111" stopIfTrue="1">
-      <formula>colour_code=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="112" stopIfTrue="1">
-      <formula>colour_code=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
       <formula>colour_code=901</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
       <formula>colour_code=902</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
       <formula>OR(colour_code=903,colour_code=904)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+      <formula>colour_code=1001</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
+      <formula>colour_code=1002</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="45" stopIfTrue="1">
       <formula>OR(colour_code=1003,colour_code=1004)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="44" stopIfTrue="1">
-      <formula>colour_code=1002</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="43" stopIfTrue="1">
-      <formula>colour_code=1001</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
       <formula>colour_code=1101</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
+      <formula>colour_code=1102</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
       <formula>OR(colour_code=1103,colour_code=1104)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="47" stopIfTrue="1">
-      <formula>colour_code=1102</formula>
+    <cfRule type="expression" dxfId="22" priority="49" stopIfTrue="1">
+      <formula>colour_code=1201</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="56" stopIfTrue="1">
+      <formula>colour_code=1202</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="57" stopIfTrue="1">
       <formula>OR(colour_code=1203,colour_code=1204)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="56" stopIfTrue="1">
-      <formula>colour_code=1202</formula>
+    <cfRule type="expression" dxfId="19" priority="58" stopIfTrue="1">
+      <formula>colour_code=1301</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="49" stopIfTrue="1">
-      <formula>colour_code=1201</formula>
+    <cfRule type="expression" dxfId="18" priority="59" stopIfTrue="1">
+      <formula>colour_code=1302</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="63" stopIfTrue="1">
-      <formula>OR(colour_code=1403,colour_code=1404)</formula>
+    <cfRule type="expression" dxfId="17" priority="60" stopIfTrue="1">
+      <formula>OR(colour_code=1303,colour_code=1304)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="61" stopIfTrue="1">
+      <formula>colour_code=1401</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="62" stopIfTrue="1">
       <formula>colour_code=1402</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="61" stopIfTrue="1">
-      <formula>colour_code=1401</formula>
+    <cfRule type="expression" dxfId="14" priority="63" stopIfTrue="1">
+      <formula>OR(colour_code=1403,colour_code=1404)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="60" stopIfTrue="1">
-      <formula>OR(colour_code=1303,colour_code=1304)</formula>
+    <cfRule type="expression" dxfId="13" priority="105" stopIfTrue="1">
+      <formula>colour_code=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="59" stopIfTrue="1">
-      <formula>colour_code=1302</formula>
+    <cfRule type="expression" dxfId="12" priority="111" stopIfTrue="1">
+      <formula>colour_code=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="58" stopIfTrue="1">
-      <formula>colour_code=1301</formula>
+    <cfRule type="expression" dxfId="11" priority="112" stopIfTrue="1">
+      <formula>colour_code=3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L43">
@@ -13017,7 +13041,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Settings!$AH$9,,,COUNTA(Settings!$AH$9:$AH204))</xm:f>
           </x14:formula1>
-          <xm:sqref>F16 F21 F26 F31</xm:sqref>
+          <xm:sqref>F16 F31 F26 F21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13075,10 +13099,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23DEFA6-ED95-4B57-808B-BDC347B399F6}">
-  <dimension ref="B1:D409"/>
+  <dimension ref="B1:D410"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="29.4" x14ac:dyDescent="0.65"/>
@@ -13088,63 +13112,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="149" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B400" s="120" t="s">
-        <v>123</v>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B2" s="149"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B3" s="151" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B4" s="150" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B401" s="120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B402" s="120" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B402" s="121" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B403" s="121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B404" s="121" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B405" s="120" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B406" s="120" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B407" s="120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B408" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="D407" s="122" t="s">
+      <c r="D408" s="122" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B409" s="120" t="s">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B410" s="120" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dGcNlNhDrmEavPuMncLBfR1B4snic67bCuUXQWMHl8lBD7n6hERjvdUl67GgN6I/xLWJX/wjBPc9zoW17zUMaw==" saltValue="WhkQc8bRhDqfEB+rJueRqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xbqiQZZVJffQ1ByA9+jQgh9Kj+4ITpxwVvxDSKAeNdfXpJtFzrYCUDrNzrpnUMSEZV254qXd1B7eSLi7WAkX5g==" saltValue="pJSIAN+fUFMpQbwti0OuDw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B402" r:id="rId1" xr:uid="{0457B3E9-BFFC-468E-AABA-F7BDB31DF1EF}"/>
-    <hyperlink ref="B403" r:id="rId2" xr:uid="{8B9278B9-1CD3-496E-912C-0D65F665305A}"/>
+    <hyperlink ref="B403" r:id="rId1" xr:uid="{0457B3E9-BFFC-468E-AABA-F7BDB31DF1EF}"/>
+    <hyperlink ref="B404" r:id="rId2" xr:uid="{8B9278B9-1CD3-496E-912C-0D65F665305A}"/>
     <hyperlink ref="B1" location="'.'!A400" display="Buy me a cup of coffee" xr:uid="{9A7C7D1D-466B-4737-9C8A-6EB5EB33C010}"/>
-    <hyperlink ref="D407" r:id="rId3" xr:uid="{9412BC74-87D5-40EA-9479-AF574B20CDB7}"/>
+    <hyperlink ref="D408" r:id="rId3" xr:uid="{9412BC74-87D5-40EA-9479-AF574B20CDB7}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://github.com/edward-0116/UltiExcelGantt" xr:uid="{0D5529C2-7CE1-4E9A-AE9D-948E6170F8E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/Ultimate Excel Gantt Chart 5 days.xlsx
+++ b/Ultimate Excel Gantt Chart 5 days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD85A16-6960-4845-8727-B970635CCA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A920BF6-6E6A-474A-94EE-A957290F212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
@@ -1654,6 +1654,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1668,6 +1671,42 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1693,45 +1732,6 @@
     <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3014,71 +3014,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
     </row>
     <row r="2" spans="2:35" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="P2" s="126" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="P2" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="127"/>
+      <c r="Q2" s="130"/>
     </row>
     <row r="3" spans="2:35" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="G6" s="124" t="s">
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="G6" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="M6" s="124" t="s">
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="M6" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="S6" s="124" t="s">
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="S6" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="124"/>
-      <c r="X6" s="124" t="s">
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="X6" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="124"/>
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="124"/>
-      <c r="AD6" s="124"/>
-      <c r="AE6" s="124"/>
-      <c r="AG6" s="124" t="s">
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AG6" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="124"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="127"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
@@ -5503,204 +5503,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="125" t="str">
+      <c r="B1" s="128" t="str">
         <f>Settings!D8</f>
         <v>Example Project</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
     </row>
     <row r="2" spans="1:69" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="X2" s="137" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="X2" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="134" cm="1">
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="149" cm="1">
         <f t="array" ref="AF2">project_start</f>
         <v>44330</v>
       </c>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="134" cm="1">
+      <c r="AK2" s="149" cm="1">
         <f t="array" ref="AK2">project_end</f>
         <v>44399</v>
       </c>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="135" t="str" cm="1">
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="150" t="str" cm="1">
         <f t="array" ref="AO2">"(" &amp; project_duration &amp; ")"</f>
         <v>(50)</v>
       </c>
-      <c r="AP2" s="135"/>
-      <c r="AT2" s="137" t="s">
+      <c r="AP2" s="150"/>
+      <c r="AT2" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="137"/>
-      <c r="AY2" s="137"/>
-      <c r="AZ2" s="137"/>
-      <c r="BA2" s="138" t="str">
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="143" t="str">
         <f>Settings!D10</f>
         <v>F.Edward</v>
       </c>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BL2" s="126" t="s">
+      <c r="BB2" s="143"/>
+      <c r="BC2" s="143"/>
+      <c r="BD2" s="143"/>
+      <c r="BE2" s="143"/>
+      <c r="BF2" s="143"/>
+      <c r="BL2" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="127"/>
+      <c r="BM2" s="148"/>
+      <c r="BN2" s="148"/>
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="130"/>
     </row>
     <row r="3" spans="1:69" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="129" t="s">
+      <c r="X5" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="131"/>
-      <c r="AG5" s="129" t="s">
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="146"/>
+      <c r="AG5" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="131"/>
-      <c r="AP5" s="129" t="s">
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="146"/>
+      <c r="AP5" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="130"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="130"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="131"/>
-      <c r="BL5" s="129" t="s">
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="146"/>
+      <c r="BL5" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="BM5" s="130"/>
-      <c r="BN5" s="130"/>
-      <c r="BO5" s="130"/>
-      <c r="BP5" s="130"/>
-      <c r="BQ5" s="131"/>
+      <c r="BM5" s="145"/>
+      <c r="BN5" s="145"/>
+      <c r="BO5" s="145"/>
+      <c r="BP5" s="145"/>
+      <c r="BQ5" s="146"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="132" t="s">
+      <c r="X6" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="132"/>
-      <c r="AG6" s="132" t="s">
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AG6" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="AH6" s="132"/>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="132"/>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AP6" s="132" t="s">
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AP6" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="132"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="132"/>
-      <c r="AU6" s="132"/>
-      <c r="BL6" s="136">
+      <c r="AQ6" s="147"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="147"/>
+      <c r="AT6" s="147"/>
+      <c r="AU6" s="147"/>
+      <c r="BL6" s="151">
         <v>44350</v>
       </c>
-      <c r="BM6" s="136"/>
-      <c r="BN6" s="136"/>
-      <c r="BO6" s="136"/>
-      <c r="BP6" s="136"/>
-      <c r="BQ6" s="136"/>
+      <c r="BM6" s="151"/>
+      <c r="BN6" s="151"/>
+      <c r="BO6" s="151"/>
+      <c r="BP6" s="151"/>
+      <c r="BQ6" s="151"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C7" s="17"/>
@@ -5908,22 +5908,22 @@
       <c r="C11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="143" t="s">
+      <c r="K11" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="144" t="s">
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="144"/>
+      <c r="V11" s="134"/>
       <c r="W11" s="88" t="s">
         <v>91</v>
       </c>
@@ -6113,22 +6113,22 @@
       </c>
     </row>
     <row r="12" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="145" t="s">
+      <c r="K12" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="146" t="s">
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="146"/>
+      <c r="V12" s="136"/>
       <c r="W12" s="88">
         <v>13</v>
       </c>
@@ -6180,35 +6180,35 @@
       <c r="BQ12" s="139"/>
     </row>
     <row r="13" spans="1:69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142" t="s">
+      <c r="B13" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="148">
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="138">
         <v>44319</v>
       </c>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="147">
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="138"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="137">
         <v>44319</v>
       </c>
-      <c r="V13" s="147"/>
+      <c r="V13" s="137"/>
       <c r="X13" s="139"/>
       <c r="Y13" s="139"/>
       <c r="Z13" s="139"/>
@@ -12530,49 +12530,18 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="BQ11:BQ13"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="BL11:BL13"/>
-    <mergeCell ref="BM11:BM13"/>
-    <mergeCell ref="BN11:BN13"/>
-    <mergeCell ref="BO11:BO13"/>
-    <mergeCell ref="BP11:BP13"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AG5:AL5"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AP5:AU5"/>
+    <mergeCell ref="AP6:AU6"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="BL6:BQ6"/>
     <mergeCell ref="B1:T3"/>
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
@@ -12589,18 +12558,49 @@
     <mergeCell ref="BE11:BE13"/>
     <mergeCell ref="BF11:BF13"/>
     <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AP5:AU5"/>
-    <mergeCell ref="AP6:AU6"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BQ11:BQ13"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="BL11:BL13"/>
+    <mergeCell ref="BM11:BM13"/>
+    <mergeCell ref="BN11:BN13"/>
+    <mergeCell ref="BO11:BO13"/>
+    <mergeCell ref="BP11:BP13"/>
+    <mergeCell ref="AT11:AT13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:BQ43">
@@ -13112,20 +13112,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="124" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B2" s="149"/>
+      <c r="B2" s="124"/>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="126" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="125" t="s">
         <v>144</v>
       </c>
     </row>

--- a/Ultimate Excel Gantt Chart 5 days.xlsx
+++ b/Ultimate Excel Gantt Chart 5 days.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A920BF6-6E6A-474A-94EE-A957290F212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC33B7B-1A23-4532-8834-D1FBD6ED77D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
   <si>
     <t>ids</t>
   </si>
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t>Spent another countless hours to add more features to make this Gantt chart to be more viable.</t>
-  </si>
-  <si>
-    <t>Buy me a cup of coffee</t>
   </si>
   <si>
     <t>Credit to original developer.</t>
@@ -1413,7 +1410,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1654,7 +1651,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1671,42 +1667,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1730,6 +1690,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2630,13 +2626,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>474559</xdr:colOff>
-      <xdr:row>436</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>171133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3014,71 +3010,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
     </row>
     <row r="2" spans="2:35" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="P2" s="129" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="P2" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="130"/>
+      <c r="Q2" s="129"/>
     </row>
     <row r="3" spans="2:35" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="G6" s="127" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="G6" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="M6" s="127" t="s">
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="M6" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="S6" s="127" t="s">
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="S6" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="X6" s="127" t="s">
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="X6" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AG6" s="127" t="s">
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AG6" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="127"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
@@ -3853,7 +3849,7 @@
     <row r="24" spans="2:35" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B24" s="117"/>
       <c r="G24" s="123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="60"/>
@@ -5503,204 +5499,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="128" t="str">
+      <c r="B1" s="127" t="str">
         <f>Settings!D8</f>
         <v>Example Project</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
     </row>
     <row r="2" spans="1:69" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="X2" s="142" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="X2" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="149" cm="1">
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="136" cm="1">
         <f t="array" ref="AF2">project_start</f>
         <v>44330</v>
       </c>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
       <c r="AJ2" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="149" cm="1">
+      <c r="AK2" s="136" cm="1">
         <f t="array" ref="AK2">project_end</f>
         <v>44399</v>
       </c>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="149"/>
-      <c r="AN2" s="149"/>
-      <c r="AO2" s="150" t="str" cm="1">
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="137" t="str" cm="1">
         <f t="array" ref="AO2">"(" &amp; project_duration &amp; ")"</f>
         <v>(50)</v>
       </c>
-      <c r="AP2" s="150"/>
-      <c r="AT2" s="142" t="s">
+      <c r="AP2" s="137"/>
+      <c r="AT2" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="143" t="str">
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="139"/>
+      <c r="AX2" s="139"/>
+      <c r="AY2" s="139"/>
+      <c r="AZ2" s="139"/>
+      <c r="BA2" s="140" t="str">
         <f>Settings!D10</f>
         <v>F.Edward</v>
       </c>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="143"/>
-      <c r="BE2" s="143"/>
-      <c r="BF2" s="143"/>
-      <c r="BL2" s="129" t="s">
+      <c r="BB2" s="140"/>
+      <c r="BC2" s="140"/>
+      <c r="BD2" s="140"/>
+      <c r="BE2" s="140"/>
+      <c r="BF2" s="140"/>
+      <c r="BL2" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="148"/>
-      <c r="BN2" s="148"/>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="130"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="129"/>
     </row>
     <row r="3" spans="1:69" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="144" t="s">
+      <c r="X5" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="145"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="146"/>
-      <c r="AG5" s="144" t="s">
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="133"/>
+      <c r="AG5" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" s="145"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="145"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="146"/>
-      <c r="AP5" s="144" t="s">
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="132"/>
+      <c r="AK5" s="132"/>
+      <c r="AL5" s="133"/>
+      <c r="AP5" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="145"/>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="145"/>
-      <c r="AU5" s="146"/>
-      <c r="BL5" s="144" t="s">
+      <c r="AQ5" s="132"/>
+      <c r="AR5" s="132"/>
+      <c r="AS5" s="132"/>
+      <c r="AT5" s="132"/>
+      <c r="AU5" s="133"/>
+      <c r="BL5" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="BM5" s="145"/>
-      <c r="BN5" s="145"/>
-      <c r="BO5" s="145"/>
-      <c r="BP5" s="145"/>
-      <c r="BQ5" s="146"/>
+      <c r="BM5" s="132"/>
+      <c r="BN5" s="132"/>
+      <c r="BO5" s="132"/>
+      <c r="BP5" s="132"/>
+      <c r="BQ5" s="133"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="147" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="147"/>
-      <c r="AG6" s="147" t="s">
+      <c r="X6" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="147"/>
-      <c r="AJ6" s="147"/>
-      <c r="AK6" s="147"/>
-      <c r="AL6" s="147"/>
-      <c r="AP6" s="147" t="s">
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AG6" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="134"/>
+      <c r="AL6" s="134"/>
+      <c r="AP6" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="AQ6" s="147"/>
-      <c r="AR6" s="147"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="147"/>
-      <c r="AU6" s="147"/>
-      <c r="BL6" s="151">
+      <c r="AQ6" s="134"/>
+      <c r="AR6" s="134"/>
+      <c r="AS6" s="134"/>
+      <c r="AT6" s="134"/>
+      <c r="AU6" s="134"/>
+      <c r="BL6" s="138">
         <v>44350</v>
       </c>
-      <c r="BM6" s="151"/>
-      <c r="BN6" s="151"/>
-      <c r="BO6" s="151"/>
-      <c r="BP6" s="151"/>
-      <c r="BQ6" s="151"/>
+      <c r="BM6" s="138"/>
+      <c r="BN6" s="138"/>
+      <c r="BO6" s="138"/>
+      <c r="BP6" s="138"/>
+      <c r="BQ6" s="138"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C7" s="17"/>
@@ -5908,353 +5904,353 @@
       <c r="C11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="133" t="s">
+      <c r="K11" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="134" t="s">
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="134"/>
+      <c r="V11" s="146"/>
       <c r="W11" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="139" cm="1">
+      <c r="X11" s="141" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">WORKDAY(timeline_start,scroll_increment)</f>
         <v>44343</v>
       </c>
-      <c r="Y11" s="139">
+      <c r="Y11" s="141">
         <f ca="1">WORKDAY(X11,1)</f>
         <v>44344</v>
       </c>
-      <c r="Z11" s="139">
+      <c r="Z11" s="141">
         <f t="shared" ref="Z11:BQ11" ca="1" si="1">WORKDAY(Y11,1)</f>
         <v>44347</v>
       </c>
-      <c r="AA11" s="139">
+      <c r="AA11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44348</v>
       </c>
-      <c r="AB11" s="139">
+      <c r="AB11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44349</v>
       </c>
-      <c r="AC11" s="139">
+      <c r="AC11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44350</v>
       </c>
-      <c r="AD11" s="139">
+      <c r="AD11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44351</v>
       </c>
-      <c r="AE11" s="139">
+      <c r="AE11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
       </c>
-      <c r="AF11" s="139">
+      <c r="AF11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
       </c>
-      <c r="AG11" s="139">
+      <c r="AG11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
       </c>
-      <c r="AH11" s="139">
+      <c r="AH11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
       </c>
-      <c r="AI11" s="139">
+      <c r="AI11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44358</v>
       </c>
-      <c r="AJ11" s="139">
+      <c r="AJ11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44361</v>
       </c>
-      <c r="AK11" s="139">
+      <c r="AK11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44362</v>
       </c>
-      <c r="AL11" s="139">
+      <c r="AL11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44363</v>
       </c>
-      <c r="AM11" s="139">
+      <c r="AM11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44364</v>
       </c>
-      <c r="AN11" s="139">
+      <c r="AN11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44365</v>
       </c>
-      <c r="AO11" s="139">
+      <c r="AO11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44368</v>
       </c>
-      <c r="AP11" s="139">
+      <c r="AP11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44369</v>
       </c>
-      <c r="AQ11" s="139">
+      <c r="AQ11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44370</v>
       </c>
-      <c r="AR11" s="139">
+      <c r="AR11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44371</v>
       </c>
-      <c r="AS11" s="139">
+      <c r="AS11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44372</v>
       </c>
-      <c r="AT11" s="139">
+      <c r="AT11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44375</v>
       </c>
-      <c r="AU11" s="139">
+      <c r="AU11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44376</v>
       </c>
-      <c r="AV11" s="139">
+      <c r="AV11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44377</v>
       </c>
-      <c r="AW11" s="139">
+      <c r="AW11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44378</v>
       </c>
-      <c r="AX11" s="139">
+      <c r="AX11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44379</v>
       </c>
-      <c r="AY11" s="139">
+      <c r="AY11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44382</v>
       </c>
-      <c r="AZ11" s="139">
+      <c r="AZ11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44383</v>
       </c>
-      <c r="BA11" s="139">
+      <c r="BA11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44384</v>
       </c>
-      <c r="BB11" s="139">
+      <c r="BB11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44385</v>
       </c>
-      <c r="BC11" s="139">
+      <c r="BC11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44386</v>
       </c>
-      <c r="BD11" s="139">
+      <c r="BD11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44389</v>
       </c>
-      <c r="BE11" s="139">
+      <c r="BE11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44390</v>
       </c>
-      <c r="BF11" s="139">
+      <c r="BF11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44391</v>
       </c>
-      <c r="BG11" s="139">
+      <c r="BG11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44392</v>
       </c>
-      <c r="BH11" s="139">
+      <c r="BH11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44393</v>
       </c>
-      <c r="BI11" s="139">
+      <c r="BI11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44396</v>
       </c>
-      <c r="BJ11" s="139">
+      <c r="BJ11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44397</v>
       </c>
-      <c r="BK11" s="139">
+      <c r="BK11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44398</v>
       </c>
-      <c r="BL11" s="139">
+      <c r="BL11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44399</v>
       </c>
-      <c r="BM11" s="139">
+      <c r="BM11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44400</v>
       </c>
-      <c r="BN11" s="139">
+      <c r="BN11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44403</v>
       </c>
-      <c r="BO11" s="139">
+      <c r="BO11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44404</v>
       </c>
-      <c r="BP11" s="139">
+      <c r="BP11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44405</v>
       </c>
-      <c r="BQ11" s="139">
+      <c r="BQ11" s="141">
         <f t="shared" ca="1" si="1"/>
         <v>44406</v>
       </c>
     </row>
     <row r="12" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="135" t="s">
+      <c r="K12" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="136" t="s">
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="136"/>
+      <c r="V12" s="148"/>
       <c r="W12" s="88">
         <v>13</v>
       </c>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="139"/>
-      <c r="AM12" s="139"/>
-      <c r="AN12" s="139"/>
-      <c r="AO12" s="139"/>
-      <c r="AP12" s="139"/>
-      <c r="AQ12" s="139"/>
-      <c r="AR12" s="139"/>
-      <c r="AS12" s="139"/>
-      <c r="AT12" s="139"/>
-      <c r="AU12" s="139"/>
-      <c r="AV12" s="139"/>
-      <c r="AW12" s="139"/>
-      <c r="AX12" s="139"/>
-      <c r="AY12" s="139"/>
-      <c r="AZ12" s="139"/>
-      <c r="BA12" s="139"/>
-      <c r="BB12" s="139"/>
-      <c r="BC12" s="139"/>
-      <c r="BD12" s="139"/>
-      <c r="BE12" s="139"/>
-      <c r="BF12" s="139"/>
-      <c r="BG12" s="139"/>
-      <c r="BH12" s="139"/>
-      <c r="BI12" s="139"/>
-      <c r="BJ12" s="139"/>
-      <c r="BK12" s="139"/>
-      <c r="BL12" s="139"/>
-      <c r="BM12" s="139"/>
-      <c r="BN12" s="139"/>
-      <c r="BO12" s="139"/>
-      <c r="BP12" s="139"/>
-      <c r="BQ12" s="139"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="141"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="141"/>
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="141"/>
+      <c r="AG12" s="141"/>
+      <c r="AH12" s="141"/>
+      <c r="AI12" s="141"/>
+      <c r="AJ12" s="141"/>
+      <c r="AK12" s="141"/>
+      <c r="AL12" s="141"/>
+      <c r="AM12" s="141"/>
+      <c r="AN12" s="141"/>
+      <c r="AO12" s="141"/>
+      <c r="AP12" s="141"/>
+      <c r="AQ12" s="141"/>
+      <c r="AR12" s="141"/>
+      <c r="AS12" s="141"/>
+      <c r="AT12" s="141"/>
+      <c r="AU12" s="141"/>
+      <c r="AV12" s="141"/>
+      <c r="AW12" s="141"/>
+      <c r="AX12" s="141"/>
+      <c r="AY12" s="141"/>
+      <c r="AZ12" s="141"/>
+      <c r="BA12" s="141"/>
+      <c r="BB12" s="141"/>
+      <c r="BC12" s="141"/>
+      <c r="BD12" s="141"/>
+      <c r="BE12" s="141"/>
+      <c r="BF12" s="141"/>
+      <c r="BG12" s="141"/>
+      <c r="BH12" s="141"/>
+      <c r="BI12" s="141"/>
+      <c r="BJ12" s="141"/>
+      <c r="BK12" s="141"/>
+      <c r="BL12" s="141"/>
+      <c r="BM12" s="141"/>
+      <c r="BN12" s="141"/>
+      <c r="BO12" s="141"/>
+      <c r="BP12" s="141"/>
+      <c r="BQ12" s="141"/>
     </row>
     <row r="13" spans="1:69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132" t="s">
+      <c r="B13" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="138">
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="150">
         <v>44319</v>
       </c>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="137">
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="149">
         <v>44319</v>
       </c>
-      <c r="V13" s="137"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="139"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="139"/>
-      <c r="AN13" s="139"/>
-      <c r="AO13" s="139"/>
-      <c r="AP13" s="139"/>
-      <c r="AQ13" s="139"/>
-      <c r="AR13" s="139"/>
-      <c r="AS13" s="139"/>
-      <c r="AT13" s="139"/>
-      <c r="AU13" s="139"/>
-      <c r="AV13" s="139"/>
-      <c r="AW13" s="139"/>
-      <c r="AX13" s="139"/>
-      <c r="AY13" s="139"/>
-      <c r="AZ13" s="139"/>
-      <c r="BA13" s="139"/>
-      <c r="BB13" s="139"/>
-      <c r="BC13" s="139"/>
-      <c r="BD13" s="139"/>
-      <c r="BE13" s="139"/>
-      <c r="BF13" s="139"/>
-      <c r="BG13" s="139"/>
-      <c r="BH13" s="139"/>
-      <c r="BI13" s="139"/>
-      <c r="BJ13" s="139"/>
-      <c r="BK13" s="139"/>
-      <c r="BL13" s="139"/>
-      <c r="BM13" s="139"/>
-      <c r="BN13" s="139"/>
-      <c r="BO13" s="139"/>
-      <c r="BP13" s="139"/>
-      <c r="BQ13" s="139"/>
+      <c r="V13" s="149"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="141"/>
+      <c r="AI13" s="141"/>
+      <c r="AJ13" s="141"/>
+      <c r="AK13" s="141"/>
+      <c r="AL13" s="141"/>
+      <c r="AM13" s="141"/>
+      <c r="AN13" s="141"/>
+      <c r="AO13" s="141"/>
+      <c r="AP13" s="141"/>
+      <c r="AQ13" s="141"/>
+      <c r="AR13" s="141"/>
+      <c r="AS13" s="141"/>
+      <c r="AT13" s="141"/>
+      <c r="AU13" s="141"/>
+      <c r="AV13" s="141"/>
+      <c r="AW13" s="141"/>
+      <c r="AX13" s="141"/>
+      <c r="AY13" s="141"/>
+      <c r="AZ13" s="141"/>
+      <c r="BA13" s="141"/>
+      <c r="BB13" s="141"/>
+      <c r="BC13" s="141"/>
+      <c r="BD13" s="141"/>
+      <c r="BE13" s="141"/>
+      <c r="BF13" s="141"/>
+      <c r="BG13" s="141"/>
+      <c r="BH13" s="141"/>
+      <c r="BI13" s="141"/>
+      <c r="BJ13" s="141"/>
+      <c r="BK13" s="141"/>
+      <c r="BL13" s="141"/>
+      <c r="BM13" s="141"/>
+      <c r="BN13" s="141"/>
+      <c r="BO13" s="141"/>
+      <c r="BP13" s="141"/>
+      <c r="BQ13" s="141"/>
     </row>
     <row r="14" spans="1:69" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="79"/>
@@ -6292,10 +6288,10 @@
       <c r="M14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="140" t="s">
+      <c r="N14" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="141"/>
+      <c r="O14" s="143"/>
       <c r="P14" s="29" t="s">
         <v>15</v>
       </c>
@@ -10896,7 +10892,7 @@
         <v>38</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="44" t="str">
@@ -11099,7 +11095,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="44" t="str">
@@ -11309,7 +11305,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="43"/>
       <c r="H38" s="44" t="str">
@@ -11519,7 +11515,7 @@
         <v>40</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="44" t="str">
@@ -11545,7 +11541,7 @@
         <v>(T) QA</v>
       </c>
       <c r="P39" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q39" s="49"/>
       <c r="R39" s="52">
@@ -11729,7 +11725,7 @@
         <v>40</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="43"/>
       <c r="H40" s="44" t="str">
@@ -11943,7 +11939,7 @@
         <v>44</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="44" t="str">
@@ -12530,18 +12526,49 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AP5:AU5"/>
-    <mergeCell ref="AP6:AU6"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AT11:AT13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="BQ11:BQ13"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="BL11:BL13"/>
+    <mergeCell ref="BM11:BM13"/>
+    <mergeCell ref="BN11:BN13"/>
+    <mergeCell ref="BO11:BO13"/>
+    <mergeCell ref="BP11:BP13"/>
     <mergeCell ref="B1:T3"/>
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
@@ -12558,49 +12585,18 @@
     <mergeCell ref="BE11:BE13"/>
     <mergeCell ref="BF11:BF13"/>
     <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="BQ11:BQ13"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="BL11:BL13"/>
-    <mergeCell ref="BM11:BM13"/>
-    <mergeCell ref="BN11:BN13"/>
-    <mergeCell ref="BO11:BO13"/>
-    <mergeCell ref="BP11:BP13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AG5:AL5"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AP5:AU5"/>
+    <mergeCell ref="AP6:AU6"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="BL6:BQ6"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:BQ43">
@@ -13041,7 +13037,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Settings!$AH$9,,,COUNTA(Settings!$AH$9:$AH204))</xm:f>
           </x14:formula1>
-          <xm:sqref>F16 F31 F26 F21</xm:sqref>
+          <xm:sqref>F16 F21 F26 F31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13099,10 +13095,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23DEFA6-ED95-4B57-808B-BDC347B399F6}">
-  <dimension ref="B1:D410"/>
+  <dimension ref="B1:D408"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="29.4" x14ac:dyDescent="0.65"/>
@@ -13112,74 +13108,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B2" s="124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B399" s="120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.65">
+      <c r="B400" s="120" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B2" s="124"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B3" s="126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.65">
-      <c r="B4" s="125" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B401" s="120" t="s">
-        <v>123</v>
+      <c r="B401" s="121" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B402" s="120" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B403" s="121" t="s">
+      <c r="B402" s="121" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B404" s="121" t="s">
+      <c r="B404" s="120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B405" s="120" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B406" s="120" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B407" s="120" t="s">
         <v>129</v>
+      </c>
+      <c r="D406" s="122" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B408" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="D408" s="122" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B410" s="120" t="s">
-        <v>132</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xbqiQZZVJffQ1ByA9+jQgh9Kj+4ITpxwVvxDSKAeNdfXpJtFzrYCUDrNzrpnUMSEZV254qXd1B7eSLi7WAkX5g==" saltValue="pJSIAN+fUFMpQbwti0OuDw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8T35wygl6UO/7erj0mFaRoFOTl0UdvJ60CNp7wVxK/EdyCma6dPMNwxk5QoVzqvqZt/tCFdcStTGWo8T4dixPg==" saltValue="XyHajByrOE2lf20TaQ+o7g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B403" r:id="rId1" xr:uid="{0457B3E9-BFFC-468E-AABA-F7BDB31DF1EF}"/>
-    <hyperlink ref="B404" r:id="rId2" xr:uid="{8B9278B9-1CD3-496E-912C-0D65F665305A}"/>
-    <hyperlink ref="B1" location="'.'!A400" display="Buy me a cup of coffee" xr:uid="{9A7C7D1D-466B-4737-9C8A-6EB5EB33C010}"/>
-    <hyperlink ref="D408" r:id="rId3" xr:uid="{9412BC74-87D5-40EA-9479-AF574B20CDB7}"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://github.com/edward-0116/UltiExcelGantt" xr:uid="{0D5529C2-7CE1-4E9A-AE9D-948E6170F8E7}"/>
+    <hyperlink ref="B401" r:id="rId1" xr:uid="{0457B3E9-BFFC-468E-AABA-F7BDB31DF1EF}"/>
+    <hyperlink ref="B402" r:id="rId2" xr:uid="{8B9278B9-1CD3-496E-912C-0D65F665305A}"/>
+    <hyperlink ref="D406" r:id="rId3" xr:uid="{9412BC74-87D5-40EA-9479-AF574B20CDB7}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://github.com/edward-0116/UltiExcelGantt" xr:uid="{0D5529C2-7CE1-4E9A-AE9D-948E6170F8E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/Ultimate Excel Gantt Chart 5 days.xlsx
+++ b/Ultimate Excel Gantt Chart 5 days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDB353-B3D9-406F-BBA7-EA6598AD2FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0ECDB-0297-4EE1-9B3E-E2EFB96AB5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1661,42 +1661,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,6 +1683,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="16" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2968,7 +2968,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AI203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
@@ -5448,7 +5448,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BR43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
     </sheetView>
@@ -5521,63 +5521,63 @@
       <c r="R2" s="123"/>
       <c r="S2" s="123"/>
       <c r="T2" s="123"/>
-      <c r="X2" s="137" t="s">
+      <c r="X2" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="144" cm="1">
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="132" cm="1">
         <f t="array" ref="AF2">project_start</f>
         <v>44330</v>
       </c>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="132"/>
       <c r="AJ2" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="144" cm="1">
+      <c r="AK2" s="132" cm="1">
         <f t="array" ref="AK2">project_end</f>
         <v>44399</v>
       </c>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="144"/>
-      <c r="AN2" s="144"/>
-      <c r="AO2" s="145" t="str" cm="1">
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="133" t="str" cm="1">
         <f t="array" ref="AO2">"(" &amp; project_duration &amp; ")"</f>
         <v>(50)</v>
       </c>
-      <c r="AP2" s="145"/>
-      <c r="AT2" s="137" t="s">
+      <c r="AP2" s="133"/>
+      <c r="AT2" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="137"/>
-      <c r="AY2" s="137"/>
-      <c r="AZ2" s="137"/>
-      <c r="BA2" s="138" t="str">
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="136" t="str">
         <f>Settings!D10</f>
         <v>F.Edward</v>
       </c>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
       <c r="BL2" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="BM2" s="143"/>
-      <c r="BN2" s="143"/>
-      <c r="BO2" s="143"/>
-      <c r="BP2" s="143"/>
+      <c r="BM2" s="131"/>
+      <c r="BN2" s="131"/>
+      <c r="BO2" s="131"/>
+      <c r="BP2" s="131"/>
       <c r="BQ2" s="125"/>
     </row>
     <row r="3" spans="1:69" s="4" customFormat="1" ht="6.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -5606,76 +5606,76 @@
       <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="139" t="s">
+      <c r="X5" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="140"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="141"/>
-      <c r="AG5" s="139" t="s">
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="129"/>
+      <c r="AG5" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" s="140"/>
-      <c r="AI5" s="140"/>
-      <c r="AJ5" s="140"/>
-      <c r="AK5" s="140"/>
-      <c r="AL5" s="141"/>
-      <c r="AP5" s="139" t="s">
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="128"/>
+      <c r="AJ5" s="128"/>
+      <c r="AK5" s="128"/>
+      <c r="AL5" s="129"/>
+      <c r="AP5" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="140"/>
-      <c r="AR5" s="140"/>
-      <c r="AS5" s="140"/>
-      <c r="AT5" s="140"/>
-      <c r="AU5" s="141"/>
-      <c r="BL5" s="139" t="s">
+      <c r="AQ5" s="128"/>
+      <c r="AR5" s="128"/>
+      <c r="AS5" s="128"/>
+      <c r="AT5" s="128"/>
+      <c r="AU5" s="129"/>
+      <c r="BL5" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="BM5" s="140"/>
-      <c r="BN5" s="140"/>
-      <c r="BO5" s="140"/>
-      <c r="BP5" s="140"/>
-      <c r="BQ5" s="141"/>
+      <c r="BM5" s="128"/>
+      <c r="BN5" s="128"/>
+      <c r="BO5" s="128"/>
+      <c r="BP5" s="128"/>
+      <c r="BQ5" s="129"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C6" s="15"/>
       <c r="D6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="142" t="s">
+      <c r="X6" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
-      <c r="AC6" s="142"/>
-      <c r="AG6" s="142" t="s">
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AG6" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
-      <c r="AP6" s="142" t="s">
+      <c r="AH6" s="130"/>
+      <c r="AI6" s="130"/>
+      <c r="AJ6" s="130"/>
+      <c r="AK6" s="130"/>
+      <c r="AL6" s="130"/>
+      <c r="AP6" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="AQ6" s="142"/>
-      <c r="AR6" s="142"/>
-      <c r="AS6" s="142"/>
-      <c r="AT6" s="142"/>
-      <c r="AU6" s="142"/>
-      <c r="BL6" s="146">
+      <c r="AQ6" s="130"/>
+      <c r="AR6" s="130"/>
+      <c r="AS6" s="130"/>
+      <c r="AT6" s="130"/>
+      <c r="AU6" s="130"/>
+      <c r="BL6" s="134">
         <v>44350</v>
       </c>
-      <c r="BM6" s="146"/>
-      <c r="BN6" s="146"/>
-      <c r="BO6" s="146"/>
-      <c r="BP6" s="146"/>
-      <c r="BQ6" s="146"/>
+      <c r="BM6" s="134"/>
+      <c r="BN6" s="134"/>
+      <c r="BO6" s="134"/>
+      <c r="BP6" s="134"/>
+      <c r="BQ6" s="134"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="C7" s="16"/>
@@ -5883,353 +5883,353 @@
       <c r="C11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="128" t="s">
+      <c r="K11" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="129" t="s">
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="129"/>
+      <c r="V11" s="142"/>
       <c r="W11" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="134" cm="1">
+      <c r="X11" s="137" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">WORKDAY(timeline_start,scroll_increment)</f>
         <v>44343</v>
       </c>
-      <c r="Y11" s="134">
+      <c r="Y11" s="137">
         <f ca="1">WORKDAY(X11,1)</f>
         <v>44344</v>
       </c>
-      <c r="Z11" s="134">
+      <c r="Z11" s="137">
         <f t="shared" ref="Z11:BQ11" ca="1" si="1">WORKDAY(Y11,1)</f>
         <v>44347</v>
       </c>
-      <c r="AA11" s="134">
+      <c r="AA11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44348</v>
       </c>
-      <c r="AB11" s="134">
+      <c r="AB11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44349</v>
       </c>
-      <c r="AC11" s="134">
+      <c r="AC11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44350</v>
       </c>
-      <c r="AD11" s="134">
+      <c r="AD11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44351</v>
       </c>
-      <c r="AE11" s="134">
+      <c r="AE11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44354</v>
       </c>
-      <c r="AF11" s="134">
+      <c r="AF11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44355</v>
       </c>
-      <c r="AG11" s="134">
+      <c r="AG11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44356</v>
       </c>
-      <c r="AH11" s="134">
+      <c r="AH11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44357</v>
       </c>
-      <c r="AI11" s="134">
+      <c r="AI11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44358</v>
       </c>
-      <c r="AJ11" s="134">
+      <c r="AJ11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44361</v>
       </c>
-      <c r="AK11" s="134">
+      <c r="AK11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44362</v>
       </c>
-      <c r="AL11" s="134">
+      <c r="AL11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44363</v>
       </c>
-      <c r="AM11" s="134">
+      <c r="AM11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44364</v>
       </c>
-      <c r="AN11" s="134">
+      <c r="AN11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44365</v>
       </c>
-      <c r="AO11" s="134">
+      <c r="AO11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44368</v>
       </c>
-      <c r="AP11" s="134">
+      <c r="AP11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44369</v>
       </c>
-      <c r="AQ11" s="134">
+      <c r="AQ11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44370</v>
       </c>
-      <c r="AR11" s="134">
+      <c r="AR11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44371</v>
       </c>
-      <c r="AS11" s="134">
+      <c r="AS11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44372</v>
       </c>
-      <c r="AT11" s="134">
+      <c r="AT11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44375</v>
       </c>
-      <c r="AU11" s="134">
+      <c r="AU11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44376</v>
       </c>
-      <c r="AV11" s="134">
+      <c r="AV11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44377</v>
       </c>
-      <c r="AW11" s="134">
+      <c r="AW11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44378</v>
       </c>
-      <c r="AX11" s="134">
+      <c r="AX11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44379</v>
       </c>
-      <c r="AY11" s="134">
+      <c r="AY11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44382</v>
       </c>
-      <c r="AZ11" s="134">
+      <c r="AZ11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44383</v>
       </c>
-      <c r="BA11" s="134">
+      <c r="BA11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44384</v>
       </c>
-      <c r="BB11" s="134">
+      <c r="BB11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44385</v>
       </c>
-      <c r="BC11" s="134">
+      <c r="BC11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44386</v>
       </c>
-      <c r="BD11" s="134">
+      <c r="BD11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44389</v>
       </c>
-      <c r="BE11" s="134">
+      <c r="BE11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44390</v>
       </c>
-      <c r="BF11" s="134">
+      <c r="BF11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44391</v>
       </c>
-      <c r="BG11" s="134">
+      <c r="BG11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44392</v>
       </c>
-      <c r="BH11" s="134">
+      <c r="BH11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44393</v>
       </c>
-      <c r="BI11" s="134">
+      <c r="BI11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44396</v>
       </c>
-      <c r="BJ11" s="134">
+      <c r="BJ11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44397</v>
       </c>
-      <c r="BK11" s="134">
+      <c r="BK11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44398</v>
       </c>
-      <c r="BL11" s="134">
+      <c r="BL11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44399</v>
       </c>
-      <c r="BM11" s="134">
+      <c r="BM11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44400</v>
       </c>
-      <c r="BN11" s="134">
+      <c r="BN11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44403</v>
       </c>
-      <c r="BO11" s="134">
+      <c r="BO11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44404</v>
       </c>
-      <c r="BP11" s="134">
+      <c r="BP11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44405</v>
       </c>
-      <c r="BQ11" s="134">
+      <c r="BQ11" s="137">
         <f t="shared" ca="1" si="1"/>
         <v>44406</v>
       </c>
     </row>
     <row r="12" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="130" t="s">
+      <c r="K12" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="131" t="s">
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="V12" s="131"/>
+      <c r="V12" s="144"/>
       <c r="W12" s="84">
         <v>13</v>
       </c>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
-      <c r="AA12" s="134"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="134"/>
-      <c r="AJ12" s="134"/>
-      <c r="AK12" s="134"/>
-      <c r="AL12" s="134"/>
-      <c r="AM12" s="134"/>
-      <c r="AN12" s="134"/>
-      <c r="AO12" s="134"/>
-      <c r="AP12" s="134"/>
-      <c r="AQ12" s="134"/>
-      <c r="AR12" s="134"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="134"/>
-      <c r="AU12" s="134"/>
-      <c r="AV12" s="134"/>
-      <c r="AW12" s="134"/>
-      <c r="AX12" s="134"/>
-      <c r="AY12" s="134"/>
-      <c r="AZ12" s="134"/>
-      <c r="BA12" s="134"/>
-      <c r="BB12" s="134"/>
-      <c r="BC12" s="134"/>
-      <c r="BD12" s="134"/>
-      <c r="BE12" s="134"/>
-      <c r="BF12" s="134"/>
-      <c r="BG12" s="134"/>
-      <c r="BH12" s="134"/>
-      <c r="BI12" s="134"/>
-      <c r="BJ12" s="134"/>
-      <c r="BK12" s="134"/>
-      <c r="BL12" s="134"/>
-      <c r="BM12" s="134"/>
-      <c r="BN12" s="134"/>
-      <c r="BO12" s="134"/>
-      <c r="BP12" s="134"/>
-      <c r="BQ12" s="134"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="137"/>
+      <c r="AJ12" s="137"/>
+      <c r="AK12" s="137"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="137"/>
+      <c r="AN12" s="137"/>
+      <c r="AO12" s="137"/>
+      <c r="AP12" s="137"/>
+      <c r="AQ12" s="137"/>
+      <c r="AR12" s="137"/>
+      <c r="AS12" s="137"/>
+      <c r="AT12" s="137"/>
+      <c r="AU12" s="137"/>
+      <c r="AV12" s="137"/>
+      <c r="AW12" s="137"/>
+      <c r="AX12" s="137"/>
+      <c r="AY12" s="137"/>
+      <c r="AZ12" s="137"/>
+      <c r="BA12" s="137"/>
+      <c r="BB12" s="137"/>
+      <c r="BC12" s="137"/>
+      <c r="BD12" s="137"/>
+      <c r="BE12" s="137"/>
+      <c r="BF12" s="137"/>
+      <c r="BG12" s="137"/>
+      <c r="BH12" s="137"/>
+      <c r="BI12" s="137"/>
+      <c r="BJ12" s="137"/>
+      <c r="BK12" s="137"/>
+      <c r="BL12" s="137"/>
+      <c r="BM12" s="137"/>
+      <c r="BN12" s="137"/>
+      <c r="BO12" s="137"/>
+      <c r="BP12" s="137"/>
+      <c r="BQ12" s="137"/>
     </row>
     <row r="13" spans="1:69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127" t="s">
+      <c r="B13" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="133">
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="146">
         <v>44319</v>
       </c>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="132">
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="146"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="146"/>
+      <c r="U13" s="145">
         <v>44319</v>
       </c>
-      <c r="V13" s="132"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="134"/>
-      <c r="AC13" s="134"/>
-      <c r="AD13" s="134"/>
-      <c r="AE13" s="134"/>
-      <c r="AF13" s="134"/>
-      <c r="AG13" s="134"/>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="134"/>
-      <c r="AJ13" s="134"/>
-      <c r="AK13" s="134"/>
-      <c r="AL13" s="134"/>
-      <c r="AM13" s="134"/>
-      <c r="AN13" s="134"/>
-      <c r="AO13" s="134"/>
-      <c r="AP13" s="134"/>
-      <c r="AQ13" s="134"/>
-      <c r="AR13" s="134"/>
-      <c r="AS13" s="134"/>
-      <c r="AT13" s="134"/>
-      <c r="AU13" s="134"/>
-      <c r="AV13" s="134"/>
-      <c r="AW13" s="134"/>
-      <c r="AX13" s="134"/>
-      <c r="AY13" s="134"/>
-      <c r="AZ13" s="134"/>
-      <c r="BA13" s="134"/>
-      <c r="BB13" s="134"/>
-      <c r="BC13" s="134"/>
-      <c r="BD13" s="134"/>
-      <c r="BE13" s="134"/>
-      <c r="BF13" s="134"/>
-      <c r="BG13" s="134"/>
-      <c r="BH13" s="134"/>
-      <c r="BI13" s="134"/>
-      <c r="BJ13" s="134"/>
-      <c r="BK13" s="134"/>
-      <c r="BL13" s="134"/>
-      <c r="BM13" s="134"/>
-      <c r="BN13" s="134"/>
-      <c r="BO13" s="134"/>
-      <c r="BP13" s="134"/>
-      <c r="BQ13" s="134"/>
+      <c r="V13" s="145"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="137"/>
+      <c r="AH13" s="137"/>
+      <c r="AI13" s="137"/>
+      <c r="AJ13" s="137"/>
+      <c r="AK13" s="137"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="137"/>
+      <c r="AN13" s="137"/>
+      <c r="AO13" s="137"/>
+      <c r="AP13" s="137"/>
+      <c r="AQ13" s="137"/>
+      <c r="AR13" s="137"/>
+      <c r="AS13" s="137"/>
+      <c r="AT13" s="137"/>
+      <c r="AU13" s="137"/>
+      <c r="AV13" s="137"/>
+      <c r="AW13" s="137"/>
+      <c r="AX13" s="137"/>
+      <c r="AY13" s="137"/>
+      <c r="AZ13" s="137"/>
+      <c r="BA13" s="137"/>
+      <c r="BB13" s="137"/>
+      <c r="BC13" s="137"/>
+      <c r="BD13" s="137"/>
+      <c r="BE13" s="137"/>
+      <c r="BF13" s="137"/>
+      <c r="BG13" s="137"/>
+      <c r="BH13" s="137"/>
+      <c r="BI13" s="137"/>
+      <c r="BJ13" s="137"/>
+      <c r="BK13" s="137"/>
+      <c r="BL13" s="137"/>
+      <c r="BM13" s="137"/>
+      <c r="BN13" s="137"/>
+      <c r="BO13" s="137"/>
+      <c r="BP13" s="137"/>
+      <c r="BQ13" s="137"/>
     </row>
     <row r="14" spans="1:69" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="75"/>
@@ -6267,10 +6267,10 @@
       <c r="M14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="135" t="s">
+      <c r="N14" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="136"/>
+      <c r="O14" s="139"/>
       <c r="P14" s="28" t="s">
         <v>15</v>
       </c>
@@ -12464,18 +12464,49 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="X6:AC6"/>
-    <mergeCell ref="BL2:BQ2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AG6:AL6"/>
-    <mergeCell ref="AP5:AU5"/>
-    <mergeCell ref="AP6:AU6"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="BL5:BQ5"/>
-    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AT11:AT13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AQ11:AQ13"/>
+    <mergeCell ref="AR11:AR13"/>
+    <mergeCell ref="AS11:AS13"/>
+    <mergeCell ref="BQ11:BQ13"/>
+    <mergeCell ref="AV11:AV13"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AX11:AX13"/>
+    <mergeCell ref="AY11:AY13"/>
+    <mergeCell ref="AZ11:AZ13"/>
+    <mergeCell ref="BL11:BL13"/>
+    <mergeCell ref="BM11:BM13"/>
+    <mergeCell ref="BN11:BN13"/>
+    <mergeCell ref="BO11:BO13"/>
+    <mergeCell ref="BP11:BP13"/>
     <mergeCell ref="B1:T3"/>
     <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
@@ -12492,49 +12523,18 @@
     <mergeCell ref="BE11:BE13"/>
     <mergeCell ref="BF11:BF13"/>
     <mergeCell ref="AU11:AU13"/>
-    <mergeCell ref="BQ11:BQ13"/>
-    <mergeCell ref="AV11:AV13"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AX11:AX13"/>
-    <mergeCell ref="AY11:AY13"/>
-    <mergeCell ref="AZ11:AZ13"/>
-    <mergeCell ref="BL11:BL13"/>
-    <mergeCell ref="BM11:BM13"/>
-    <mergeCell ref="BN11:BN13"/>
-    <mergeCell ref="BO11:BO13"/>
-    <mergeCell ref="BP11:BP13"/>
-    <mergeCell ref="AT11:AT13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AQ11:AQ13"/>
-    <mergeCell ref="AR11:AR13"/>
-    <mergeCell ref="AS11:AS13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="X5:AC5"/>
+    <mergeCell ref="X6:AC6"/>
+    <mergeCell ref="BL2:BQ2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AG5:AL5"/>
+    <mergeCell ref="AG6:AL6"/>
+    <mergeCell ref="AP5:AU5"/>
+    <mergeCell ref="AP6:AU6"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="BL5:BQ5"/>
+    <mergeCell ref="BL6:BQ6"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:BQ43">

--- a/Ultimate Excel Gantt Chart 5 days.xlsx
+++ b/Ultimate Excel Gantt Chart 5 days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\UltiExcelGantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0ECDB-0297-4EE1-9B3E-E2EFB96AB5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC955DA1-F42C-49AB-9DE3-53F4D0F26C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFDBE86C-E0AC-4E7A-ABF5-EFB3D0056DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="145">
   <si>
     <t>ids</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>Tasks/Stages/Projects</t>
+  </si>
+  <si>
+    <t>◁</t>
+  </si>
+  <si>
+    <t>▷</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1413,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1720,6 +1726,13 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2444,7 +2457,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$W$12" horiz="1" max="30000" noThreeD="1" page="10" val="13"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$W$12" horiz="1" max="30000" noThreeD="1" page="10" val="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2511,16 +2524,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>66</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:col>63</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>68</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>2382</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2568,7 +2581,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>936123</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>46350</xdr:rowOff>
+      <xdr:rowOff>57780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5449,8 +5462,8 @@
   <dimension ref="A1:BR43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W35" sqref="W35"/>
+      <pane ySplit="15" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5682,6 +5695,26 @@
       <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="BK7" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL7" s="148"/>
+      <c r="BM7" s="148"/>
+      <c r="BN7" s="148"/>
+      <c r="BO7" s="148"/>
+      <c r="BP7" s="148"/>
+      <c r="BQ7" s="149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BK8" s="147"/>
+      <c r="BL8" s="148"/>
+      <c r="BM8" s="148"/>
+      <c r="BN8" s="148"/>
+      <c r="BO8" s="148"/>
+      <c r="BP8" s="148"/>
+      <c r="BQ8" s="149"/>
     </row>
     <row r="9" spans="1:69" ht="4.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14"/>
@@ -5704,15 +5737,15 @@
       </c>
       <c r="Z10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5724,15 +5757,15 @@
       </c>
       <c r="AE10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5744,15 +5777,15 @@
       </c>
       <c r="AJ10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5764,15 +5797,15 @@
       </c>
       <c r="AO10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5784,15 +5817,15 @@
       </c>
       <c r="AT10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5804,15 +5837,15 @@
       </c>
       <c r="AY10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5824,15 +5857,15 @@
       </c>
       <c r="BD10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BE10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BF10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BG10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5844,15 +5877,15 @@
       </c>
       <c r="BI10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BJ10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BK10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BL10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5864,15 +5897,15 @@
       </c>
       <c r="BN10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BO10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BP10" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BQ10" s="87">
         <f t="shared" ca="1" si="0"/>
@@ -5904,187 +5937,187 @@
       </c>
       <c r="X11" s="137" cm="1">
         <f t="array" aca="1" ref="X11" ca="1">WORKDAY(timeline_start,scroll_increment)</f>
-        <v>44343</v>
+        <v>44340</v>
       </c>
       <c r="Y11" s="137">
         <f ca="1">WORKDAY(X11,1)</f>
-        <v>44344</v>
+        <v>44341</v>
       </c>
       <c r="Z11" s="137">
         <f t="shared" ref="Z11:BQ11" ca="1" si="1">WORKDAY(Y11,1)</f>
-        <v>44347</v>
+        <v>44342</v>
       </c>
       <c r="AA11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44348</v>
+        <v>44343</v>
       </c>
       <c r="AB11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44349</v>
+        <v>44344</v>
       </c>
       <c r="AC11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44350</v>
+        <v>44347</v>
       </c>
       <c r="AD11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44351</v>
+        <v>44348</v>
       </c>
       <c r="AE11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44354</v>
+        <v>44349</v>
       </c>
       <c r="AF11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44355</v>
+        <v>44350</v>
       </c>
       <c r="AG11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44356</v>
+        <v>44351</v>
       </c>
       <c r="AH11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44357</v>
+        <v>44354</v>
       </c>
       <c r="AI11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="AJ11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44361</v>
+        <v>44356</v>
       </c>
       <c r="AK11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44362</v>
+        <v>44357</v>
       </c>
       <c r="AL11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44363</v>
+        <v>44358</v>
       </c>
       <c r="AM11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44364</v>
+        <v>44361</v>
       </c>
       <c r="AN11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="AO11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44368</v>
+        <v>44363</v>
       </c>
       <c r="AP11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44369</v>
+        <v>44364</v>
       </c>
       <c r="AQ11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44370</v>
+        <v>44365</v>
       </c>
       <c r="AR11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44371</v>
+        <v>44368</v>
       </c>
       <c r="AS11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44372</v>
+        <v>44369</v>
       </c>
       <c r="AT11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44375</v>
+        <v>44370</v>
       </c>
       <c r="AU11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44376</v>
+        <v>44371</v>
       </c>
       <c r="AV11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44377</v>
+        <v>44372</v>
       </c>
       <c r="AW11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44378</v>
+        <v>44375</v>
       </c>
       <c r="AX11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44379</v>
+        <v>44376</v>
       </c>
       <c r="AY11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44382</v>
+        <v>44377</v>
       </c>
       <c r="AZ11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44383</v>
+        <v>44378</v>
       </c>
       <c r="BA11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="BB11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44385</v>
+        <v>44382</v>
       </c>
       <c r="BC11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44386</v>
+        <v>44383</v>
       </c>
       <c r="BD11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44389</v>
+        <v>44384</v>
       </c>
       <c r="BE11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44390</v>
+        <v>44385</v>
       </c>
       <c r="BF11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44391</v>
+        <v>44386</v>
       </c>
       <c r="BG11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44392</v>
+        <v>44389</v>
       </c>
       <c r="BH11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44393</v>
+        <v>44390</v>
       </c>
       <c r="BI11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="BJ11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44397</v>
+        <v>44392</v>
       </c>
       <c r="BK11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44398</v>
+        <v>44393</v>
       </c>
       <c r="BL11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44399</v>
+        <v>44396</v>
       </c>
       <c r="BM11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44400</v>
+        <v>44397</v>
       </c>
       <c r="BN11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44403</v>
+        <v>44398</v>
       </c>
       <c r="BO11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44404</v>
+        <v>44399</v>
       </c>
       <c r="BP11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44405</v>
+        <v>44400</v>
       </c>
       <c r="BQ11" s="137">
         <f t="shared" ca="1" si="1"/>
-        <v>44406</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="12" spans="1:69" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6105,7 +6138,7 @@
       </c>
       <c r="V12" s="144"/>
       <c r="W12" s="84">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X12" s="137"/>
       <c r="Y12" s="137"/>
@@ -6297,15 +6330,15 @@
       </c>
       <c r="X14" s="34" t="str">
         <f ca="1">LEFT(TEXT(X11,"ddd"),1)</f>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="Y14" s="34" t="str">
         <f t="shared" ref="Y14:BQ14" ca="1" si="2">LEFT(TEXT(Y11,"ddd"),1)</f>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="Z14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AA14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6313,19 +6346,19 @@
       </c>
       <c r="AB14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AC14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AD14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AE14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AF14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6333,19 +6366,19 @@
       </c>
       <c r="AG14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AH14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AI14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AJ14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AK14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6353,19 +6386,19 @@
       </c>
       <c r="AL14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AM14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AN14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AO14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AP14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6373,19 +6406,19 @@
       </c>
       <c r="AQ14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AR14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AS14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AT14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AU14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6393,19 +6426,19 @@
       </c>
       <c r="AV14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AW14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AX14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AY14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AZ14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6413,19 +6446,19 @@
       </c>
       <c r="BA14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BB14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BC14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BD14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BE14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6433,19 +6466,19 @@
       </c>
       <c r="BF14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BG14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BH14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BI14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BJ14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6453,19 +6486,19 @@
       </c>
       <c r="BK14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BL14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BM14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BN14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BO14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6473,11 +6506,11 @@
       </c>
       <c r="BP14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BQ14" s="34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>T</v>
+        <v>M</v>
       </c>
     </row>
     <row r="15" spans="1:69" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -12463,7 +12496,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="73">
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="K11:T11"/>
@@ -12523,6 +12556,7 @@
     <mergeCell ref="BE11:BE13"/>
     <mergeCell ref="BF11:BF13"/>
     <mergeCell ref="AU11:AU13"/>
+    <mergeCell ref="BQ7:BQ8"/>
     <mergeCell ref="X5:AC5"/>
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="BL2:BQ2"/>
@@ -12535,6 +12569,7 @@
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="BL5:BQ5"/>
     <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="BK7:BK8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="X11:BQ43">
@@ -12892,16 +12927,16 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>66</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:col>63</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:rowOff>53340</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>68</xdr:col>
-                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>160020</xdr:rowOff>
+                    <xdr:rowOff>129540</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
